--- a/Домашна 1/Filtri/hospitals_data.xlsx
+++ b/Домашна 1/Filtri/hospitals_data.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Evaluation Warning" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,71 +29,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="351">
   <si>
     <t>municipality</t>
   </si>
   <si>
-    <t>BSaJxc</t>
-  </si>
-  <si>
     <t>work_time</t>
   </si>
   <si>
-    <t>UbRuwe</t>
-  </si>
-  <si>
     <t>href</t>
   </si>
   <si>
-    <t>BI0Dve</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>number-of-reviews</t>
-  </si>
-  <si>
     <t>rating</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>Насоки</t>
-  </si>
-  <si>
-    <t>(1)</t>
-  </si>
-  <si>
-    <t>(3)</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>(4)</t>
-  </si>
-  <si>
-    <t>(6)</t>
-  </si>
-  <si>
-    <t>(5)</t>
-  </si>
-  <si>
-    <t>(2)</t>
-  </si>
-  <si>
-    <t>(8)</t>
-  </si>
-  <si>
-    <t>(9)</t>
-  </si>
-  <si>
     <t>Gazi Baba</t>
   </si>
   <si>
@@ -103,27 +64,15 @@
     <t>Gjorce Petrov</t>
   </si>
   <si>
-    <t>(24)</t>
-  </si>
-  <si>
-    <t>(17)</t>
-  </si>
-  <si>
     <t>Skopje</t>
   </si>
   <si>
-    <t>(12)</t>
-  </si>
-  <si>
     <t>Butel</t>
   </si>
   <si>
     <t>Clinical Center „Mother Theresa“</t>
   </si>
   <si>
-    <t>(133)</t>
-  </si>
-  <si>
     <t>City Clinical Center</t>
   </si>
   <si>
@@ -421,18 +370,6 @@
     <t>4.5</t>
   </si>
   <si>
-    <t>(224)</t>
-  </si>
-  <si>
-    <t>(353)</t>
-  </si>
-  <si>
-    <t>(28)</t>
-  </si>
-  <si>
-    <t>(48)</t>
-  </si>
-  <si>
     <t>3.8</t>
   </si>
   <si>
@@ -463,33 +400,6 @@
     <t>3.5</t>
   </si>
   <si>
-    <t>(26)</t>
-  </si>
-  <si>
-    <t>(18)</t>
-  </si>
-  <si>
-    <t>(39)</t>
-  </si>
-  <si>
-    <t>(130)</t>
-  </si>
-  <si>
-    <t>(54)</t>
-  </si>
-  <si>
-    <t>(25)</t>
-  </si>
-  <si>
-    <t>(23)</t>
-  </si>
-  <si>
-    <t>(121)</t>
-  </si>
-  <si>
-    <t>(68)</t>
-  </si>
-  <si>
     <t>2.4</t>
   </si>
   <si>
@@ -502,42 +412,15 @@
     <t>Eye care center</t>
   </si>
   <si>
-    <t>href2</t>
-  </si>
-  <si>
     <t>phonen.</t>
   </si>
   <si>
     <t>http://zdravstvo.gov.mk/adresi-univerzitetski-kliniki/</t>
   </si>
   <si>
-    <t>https://www.google.com/search?tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;sxsrf=ALiCzsZ58fOThMomGW8ixeucNbPyxHvTTg:1667733612475&amp;q=hospitals+centar+skopje&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwiqs7Tst5n7AhUoSfEDHYZNC40QjGp6BAgXEAE&amp;biw=1707&amp;bih=837&amp;dpr=1.13#</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?q=hospitals+karposh+skopje&amp;biw=1707&amp;bih=837&amp;tbm=lcl&amp;sxsrf=ALiCzsbu5U5MEAssOuNrMCObpGFtUaDQng%3A1667733615424&amp;ei=b5hnY-nEGe-Oxc8PgO2Z0AI&amp;ved=0ahUKEwipuOjtt5n7AhVvR_EDHYB2BioQ4dUDCAk&amp;uact=5&amp;oq=hospitals+karposh+skopje&amp;gs_lcp=Cg1nd3Mtd2l6LWxvY2FsEAMyBAgjECc6BwgAEIAEEA06CAgAEAUQHhANOgUIABCiBDoICCEQwwQQoAE6CgghEMMEEAoQoAFQ7wVY1Q9gjhFoAHAAeACAAZgBiAHNCJIBAzEuOJgBAKABAcABAQ&amp;sclient=gws-wiz-local#</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?q=hospitals+gazi+baba+skopje&amp;biw=1536&amp;bih=754&amp;tbm=lcl&amp;sxsrf=ALiCzsavyvDrwNg5As4l5-ZulKHEF8_oYw%3A1667736848903&amp;ei=EKVnY8DbNra8xc8PrYyRqAI&amp;ved=0ahUKEwjAo9Tzw5n7AhU2XvEDHS1GBCUQ4dUDCAk&amp;uact=5&amp;oq=hospitals+gazi+baba+skopje&amp;gs_lcp=Cg1nd3Mtd2l6LWxvY2FsEAMyCAghEMMEEKABMggIIRDDBBCgATIICCEQwwQQoAE6BAgjECdQiwlYrxtgiR1oAHAAeACAAasBiAH5BpIBAzAuNpgBAKABAcABAQ&amp;sclient=gws-wiz-local#</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?q=hospitals+shuto+orizari+skopje&amp;biw=1536&amp;bih=754&amp;tbm=lcl&amp;sxsrf=ALiCzsa6feN97L4LtSW5KcWpGBwDZds03Q%3A1667741053782&amp;ei=fbVnY-6xL9aqxc8PhquV8AU&amp;ved=0ahUKEwiu5NnI05n7AhVWVfEDHYZVBV4Q4dUDCAk&amp;uact=5&amp;oq=hospitals+shuto+orizari+skopje&amp;gs_lcp=Cg1nd3Mtd2l6LWxvY2FsEAMyCAghEMMEEKABOgQIIxAnUIYGWKURYJ8SaABwAHgAgAG_AYgByhCSAQQxLjE0mAEAoAEBwAEB&amp;sclient=gws-wiz-local#</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?q=hospitals+butel+skopje&amp;biw=1536&amp;bih=754&amp;tbm=lcl&amp;sxsrf=ALiCzsadIyw1Gji820JJg5NUERiw6I1OGw%3A1667740507978&amp;ei=W7NnY9OlO4WNxc8Pn62swAE&amp;ved=0ahUKEwiTv7jE0Zn7AhWFRvEDHZ8WCxgQ4dUDCAk&amp;uact=5&amp;oq=hospitals+butel+skopje&amp;gs_lcp=Cg1nd3Mtd2l6LWxvY2FsEAMyBAgjECdQrQZY4AhgyRBoAHAAeACAAasBiAG1B5IBAzIuNZgBAKABAcABAQ&amp;sclient=gws-wiz-local#</t>
-  </si>
-  <si>
     <t>http://www.manolevi.com.mk/</t>
   </si>
   <si>
-    <t>https://www.google.com/search?q=hospitals+cair+skopje&amp;biw=1536&amp;bih=754&amp;tbm=lcl&amp;sxsrf=ALiCzsasUWRQMFlClONWHKlT0UPICGmK9A%3A1667740025546&amp;ei=ebFnY9nzILeDxc8Pj427GA&amp;ved=0ahUKEwiZlLPez5n7AhW3QfEDHY_GDgMQ4dUDCAk&amp;uact=5&amp;oq=hospitals+cair+skopje&amp;gs_lcp=Cg1nd3Mtd2l6LWxvY2FsEAMyBAgjECc6CAghEMMEEKABUMgJWM8MYMYQaABwAHgAgAHOAYgBoQaSAQUwLjQuMZgBAKABAcABAQ&amp;sclient=gws-wiz-local#</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?q=hospitals+aerodrom+skopje&amp;biw=1536&amp;bih=754&amp;tbm=lcl&amp;sxsrf=ALiCzsbBoDmJBMkVsyBEGai0tMDJOO3Dqg%3A1667736503328&amp;ei=t6NnY9zHE72qxc8PuvmLuA8&amp;ved=0ahUKEwic_-_Owpn7AhU9VfEDHbr8AvcQ4dUDCAk&amp;uact=5&amp;oq=hospitals+aerodrom+skopje&amp;gs_lcp=Cg1nd3Mtd2l6LWxvY2FsEANQ8x9Y9ixg4y1oAHAAeACAAeQmiAG9NZIBBTgtMS4xmAEAoAEBwAEB&amp;sclient=gws-wiz-local#</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?q=hospitals+kisela+voda+skopje&amp;biw=1536&amp;bih=754&amp;tbm=lcl&amp;sxsrf=ALiCzsa3ogAvKXpTca7Zj8WVHlujyOt-og%3A1667736089617&amp;ei=GaJnY6qgJei9xc8P-96DkA0&amp;ved=0ahUKEwjqkM2JwZn7AhXoXvEDHXvvANIQ4dUDCAk&amp;uact=5&amp;oq=hospitals+kisela+voda+skopje&amp;gs_lcp=Cg1nd3Mtd2l6LWxvY2FsEAMyBAgjECc6CAghEMMEEKABUIUFWLAPYIwRaABwAHgAgAGjAogBkRaSAQYwLjIuMTCYAQCgAQHAAQE&amp;sclient=gws-wiz-local#</t>
-  </si>
-  <si>
     <t>https://www.google.com/search?q=hospitals+gjorche+petrov+skopje&amp;biw=1536&amp;bih=754&amp;tbm=lcl&amp;sxsrf=ALiCzsYz9CbWlEuRGpMo4R-SfOII2VzAnA%3A1667735089466&amp;ei=MZ5nY4GGHPiCxc8PyPaYCA&amp;ved=0ahUKEwjB4tisvZn7AhV4QfEDHUg7BgEQ4dUDCAk&amp;uact=5&amp;oq=hospitals+gjorche+petrov+skopje&amp;gs_lcp=Cg1nd3Mtd2l6LWxvY2FsEAMyCAghEMMEEKABUABYAGDOAmgAcAB4AIAB4QKIAdEEkgEFMi0xLjGYAQCgAQHAAQE&amp;sclient=gws-wiz-local#</t>
   </si>
   <si>
@@ -796,9 +679,6 @@
     <t>http://www.gerontology.org.mk/</t>
   </si>
   <si>
-    <t>Задравствена услуга</t>
-  </si>
-  <si>
     <t>Open 24 hours</t>
   </si>
   <si>
@@ -1057,9 +937,6 @@
     <t>3.3</t>
   </si>
   <si>
-    <t>(71)</t>
-  </si>
-  <si>
     <t>XCQF+983</t>
   </si>
   <si>
@@ -1120,16 +997,103 @@
     <t>Sis hospital</t>
   </si>
   <si>
-    <t>(0)</t>
-  </si>
-  <si>
     <t>Мајка Тереза 17, Mother Teresa 17</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Number-of-review</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>68</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;ден&quot;_-;\-* #,##0\ &quot;ден&quot;_-;_-* &quot;-&quot;\ &quot;ден&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _д_е_н_-;\-* #,##0\ _д_е_н_-;_-* &quot;-&quot;\ _д_е_н_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;ден&quot;_-;\-* #,##0.00\ &quot;ден&quot;_-;_-* &quot;-&quot;??\ &quot;ден&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _д_е_н_-;\-* #,##0.00\ _д_е_н_-;_-* &quot;-&quot;??\ _д_е_н_-;_-@_-"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -1169,7 +1133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990010261536"/>
+        <fgColor theme="7" tint="0.599900007247925"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,7 +1225,7 @@
       <bottom style="medium"/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -1285,71 +1249,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="76" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="20" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1360,14 +1268,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="76"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="20"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
@@ -1376,7 +1289,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="76"/>
+    <cellStyle name="Hyperlink" xfId="20"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1501,7 +1414,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1553,7 +1466,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1747,18 +1660,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA3E1FC-9176-4B3F-BD20-926930B25048}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0" topLeftCell="A77">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1773,2548 +1686,2548 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>8</v>
+        <v>324</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>325</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15">
       <c r="A3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>326</v>
       </c>
       <c r="D3" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>327</v>
       </c>
       <c r="D4" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="18">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>363</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D5" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="18">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>363</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D6" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>328</v>
       </c>
       <c r="D7" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I7" s="19"/>
+        <v>131</v>
+      </c>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="18">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>363</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D8" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B9" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>329</v>
+      </c>
       <c r="D9" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15">
       <c r="A10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>330</v>
       </c>
       <c r="D10" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
       <c r="A11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="18">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>363</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D11" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
       <c r="A12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>146</v>
+        <v>23</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>331</v>
       </c>
       <c r="D12" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D13" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D14" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>334</v>
       </c>
       <c r="D15" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>130</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>335</v>
       </c>
       <c r="D16" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>342</v>
+        <v>28</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>336</v>
       </c>
       <c r="D17" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>363</v>
+        <v>29</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D18" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I18" s="19"/>
+        <v>132</v>
+      </c>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" ht="15">
       <c r="A19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="18">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>363</v>
+        <v>29</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D19" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I19" s="19"/>
+        <v>132</v>
+      </c>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" ht="15">
       <c r="A20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>131</v>
+        <v>30</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>337</v>
       </c>
       <c r="D20" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15">
       <c r="A21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>132</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>338</v>
       </c>
       <c r="D21" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>328</v>
       </c>
       <c r="D22" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D23" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D24" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>133</v>
+        <v>35</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>339</v>
       </c>
       <c r="D25" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>328</v>
       </c>
       <c r="D26" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I26" s="19"/>
+        <v>132</v>
+      </c>
+      <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="15">
       <c r="A27" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B27" s="18">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>363</v>
+        <v>321</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D27" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15">
       <c r="A28" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>328</v>
       </c>
       <c r="D28" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15">
       <c r="A29" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>340</v>
       </c>
       <c r="D29" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15">
       <c r="A30" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="18">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>363</v>
+        <v>40</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D30" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15">
       <c r="A31" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D31" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="18">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>363</v>
+        <v>42</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D32" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15">
       <c r="A33" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="18">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>363</v>
+        <v>43</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D33" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I33" s="19"/>
+        <v>132</v>
+      </c>
+      <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:9" ht="15">
       <c r="A34" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>341</v>
       </c>
       <c r="D34" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15">
       <c r="A35" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>328</v>
       </c>
       <c r="D35" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15">
       <c r="A36" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>12</v>
+        <v>46</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>328</v>
       </c>
       <c r="D36" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15">
       <c r="A37" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="18">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>363</v>
+        <v>47</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D37" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="19" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15">
       <c r="A38" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>328</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15">
       <c r="A39" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>147</v>
+        <v>49</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>342</v>
       </c>
       <c r="D39" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15">
       <c r="A40" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>334</v>
       </c>
       <c r="D40" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15">
       <c r="A41" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="18">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>363</v>
+        <v>51</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D41" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15">
       <c r="A42" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="18">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>363</v>
+        <v>52</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D42" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15">
       <c r="A43" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="18">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>363</v>
+        <v>53</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D43" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I43" s="19"/>
+        <v>133</v>
+      </c>
+      <c r="I43" s="17"/>
     </row>
     <row r="44" spans="1:9" ht="15">
       <c r="A44" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="18">
-        <v>0</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>363</v>
+        <v>54</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D44" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I44" s="19"/>
+        <v>133</v>
+      </c>
+      <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="15">
       <c r="A45" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>334</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15">
       <c r="A46" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>328</v>
       </c>
       <c r="D46" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15">
       <c r="A47" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>328</v>
       </c>
       <c r="D47" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15">
       <c r="A48" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>343</v>
       </c>
       <c r="D48" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="I48" s="17"/>
     </row>
     <row r="49" spans="1:9" ht="15">
       <c r="A49" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>330</v>
       </c>
       <c r="D49" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15">
       <c r="A50" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D50" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15">
       <c r="A51" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>344</v>
       </c>
       <c r="D51" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I51" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15">
       <c r="A52" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="18">
-        <v>0</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>363</v>
+        <v>62</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D52" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I52" s="19"/>
+        <v>134</v>
+      </c>
+      <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:9" ht="15">
       <c r="A53" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="18">
-        <v>0</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>363</v>
+        <v>63</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D53" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15">
       <c r="A54" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>17</v>
+        <v>64</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D54" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I54" s="19"/>
+        <v>134</v>
+      </c>
+      <c r="I54" s="17"/>
     </row>
     <row r="55" spans="1:9" ht="15">
       <c r="A55" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="18">
-        <v>0</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>363</v>
+        <v>65</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D55" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I55" s="19"/>
+        <v>134</v>
+      </c>
+      <c r="I55" s="17"/>
     </row>
     <row r="56" spans="1:9" ht="15">
       <c r="A56" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="18">
-        <v>0</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>363</v>
+        <v>66</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D56" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I56" s="19"/>
+        <v>134</v>
+      </c>
+      <c r="I56" s="17"/>
     </row>
     <row r="57" spans="1:9" ht="15">
       <c r="A57" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>345</v>
       </c>
       <c r="D57" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15">
       <c r="A58" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="18">
-        <v>0</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>363</v>
+        <v>68</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D58" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15">
       <c r="A59" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>334</v>
       </c>
       <c r="D59" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15">
       <c r="A60" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>13</v>
+        <v>70</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D60" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15">
       <c r="A61" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D61" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15">
       <c r="A62" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>148</v>
+        <v>72</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>346</v>
       </c>
       <c r="D62" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15">
       <c r="A63" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63" s="18">
-        <v>0</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>363</v>
+        <v>73</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D63" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15">
       <c r="A64" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>17</v>
+        <v>74</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D64" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15">
       <c r="A65" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>334</v>
       </c>
       <c r="D65" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I65" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="I65" s="17"/>
     </row>
     <row r="66" spans="1:9" ht="15">
       <c r="A66" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" s="18">
-        <v>0</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>363</v>
+        <v>76</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D66" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I66" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="I66" s="17"/>
     </row>
     <row r="67" spans="1:9" ht="15">
       <c r="A67" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" s="18">
-        <v>0</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>363</v>
+        <v>77</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D67" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I67" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="I67" s="17"/>
     </row>
     <row r="68" spans="1:9" ht="15">
       <c r="A68" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>18</v>
+        <v>78</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>334</v>
       </c>
       <c r="D68" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15">
       <c r="A69" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B69" s="18">
-        <v>0</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>363</v>
+        <v>79</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D69" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15">
       <c r="A70" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B70" s="18">
-        <v>0</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>363</v>
+        <v>80</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D70" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15">
       <c r="A71" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>328</v>
       </c>
       <c r="D71" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15">
       <c r="A72" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>149</v>
+        <v>82</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>347</v>
       </c>
       <c r="D72" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15">
       <c r="A73" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>329</v>
       </c>
       <c r="D73" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15">
       <c r="A74" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>12</v>
+        <v>84</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>328</v>
       </c>
       <c r="D74" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15">
       <c r="A75" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>12</v>
+        <v>85</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>328</v>
       </c>
       <c r="D75" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15">
       <c r="A76" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>150</v>
+        <v>86</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>348</v>
       </c>
       <c r="D76" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15">
       <c r="A77" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>343</v>
       </c>
       <c r="D77" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15">
       <c r="A78" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>17</v>
+        <v>88</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D78" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15">
       <c r="A79" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79" s="18">
-        <v>0</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>363</v>
+        <v>89</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D79" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15">
       <c r="A80" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D80" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15">
       <c r="A81" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B81" s="18">
-        <v>0</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>363</v>
+        <v>91</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D81" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I81" s="19"/>
+        <v>136</v>
+      </c>
+      <c r="I81" s="17"/>
     </row>
     <row r="82" spans="1:9" ht="15">
       <c r="A82" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>17</v>
+        <v>92</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D82" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15">
       <c r="A83" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>18</v>
+        <v>93</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>334</v>
       </c>
       <c r="D83" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I83" s="19"/>
+        <v>136</v>
+      </c>
+      <c r="I83" s="17"/>
     </row>
     <row r="84" spans="1:9" ht="15">
       <c r="A84" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B84" s="18">
-        <v>0</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>363</v>
+        <v>94</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D84" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I84" s="19"/>
+        <v>136</v>
+      </c>
+      <c r="I84" s="17"/>
     </row>
     <row r="85" spans="1:9" ht="15">
       <c r="A85" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B85" s="18">
-        <v>0</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>363</v>
+        <v>95</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D85" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15">
       <c r="A86" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>150</v>
+        <v>96</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>348</v>
       </c>
       <c r="D86" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15">
       <c r="A87" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B87" s="18">
-        <v>0</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>363</v>
+        <v>97</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D87" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I87" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="I87" s="17"/>
     </row>
     <row r="88" spans="1:9" ht="15">
       <c r="A88" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>12</v>
+        <v>98</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>328</v>
       </c>
       <c r="D88" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I88" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="I88" s="17"/>
     </row>
     <row r="89" spans="1:9" ht="15">
       <c r="A89" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>151</v>
+        <v>99</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>349</v>
       </c>
       <c r="D89" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15">
       <c r="A90" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B90" s="18">
-        <v>0</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>363</v>
+        <v>100</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D90" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15">
       <c r="A91" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>328</v>
       </c>
       <c r="D91" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I91" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="I91" s="17"/>
     </row>
     <row r="92" spans="1:9" ht="15">
       <c r="A92" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>12</v>
+        <v>102</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>328</v>
       </c>
       <c r="D92" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15">
       <c r="A93" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>152</v>
+        <v>103</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>350</v>
       </c>
       <c r="D93" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15">
       <c r="A94" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>15</v>
+        <v>104</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>343</v>
       </c>
       <c r="D94" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15">
       <c r="A95" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>345</v>
       </c>
       <c r="D95" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15" thickBot="1">
       <c r="A96" s="13" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>12</v>
+        <v>111</v>
+      </c>
+      <c r="C96" s="22">
+        <v>1</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4339,42 +4252,42 @@
   <sheetData>
     <row r="1" ht="15">
       <c r="B1" s="15" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" ht="15">
       <c r="B2" s="15" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" ht="15">
       <c r="B4" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" ht="15">
-      <c r="B5" s="17" t="s">
-        <v>357</v>
+      <c r="B5" s="16" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="7" ht="15">
       <c r="B7" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" ht="15">
-      <c r="B8" s="17" t="s">
-        <v>359</v>
+      <c r="B8" s="16" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="10" ht="15">
       <c r="B10" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" ht="15">
-      <c r="B11" s="17" t="s">
-        <v>361</v>
+      <c r="B11" s="16" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
